--- a/excel/projects/store data analysis using excel/304_class_practice.xlsx
+++ b/excel/projects/store data analysis using excel/304_class_practice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8904" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8904" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Rahish</author>
   </authors>
   <commentList>
-    <comment ref="F29" authorId="0" shapeId="0">
+    <comment ref="G29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="373">
   <si>
     <t>index</t>
   </si>
@@ -1107,6 +1107,84 @@
   </si>
   <si>
     <t>age group</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>men total sale</t>
+  </si>
+  <si>
+    <t>women total sale</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>criteria</t>
+  </si>
+  <si>
+    <t>channel name</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>flipkart</t>
+  </si>
+  <si>
+    <t>avg sales</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>customer count</t>
+  </si>
+  <si>
+    <t>myntra</t>
+  </si>
+  <si>
+    <t>lookups</t>
+  </si>
+  <si>
+    <t>vloop</t>
+  </si>
+  <si>
+    <t>hlook</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>date function</t>
+  </si>
+  <si>
+    <t>text funtion</t>
+  </si>
+  <si>
+    <t>teeage</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>teenager</t>
+  </si>
+  <si>
+    <t>sale in che</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1153,6 +1231,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,7 +1371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1294,12 +1384,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3561,17 +3666,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S100" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U100" totalsRowShown="0">
   <sortState ref="A2:V99">
     <sortCondition descending="1" ref="E1"/>
   </sortState>
-  <tableColumns count="19">
+  <tableColumns count="21">
     <tableColumn id="1" name="index"/>
     <tableColumn id="2" name="Order ID"/>
     <tableColumn id="3" name="Cust ID"/>
     <tableColumn id="4" name="Gender"/>
     <tableColumn id="5" name="Age"/>
-    <tableColumn id="7" name="Date"/>
+    <tableColumn id="8" name="age group"/>
+    <tableColumn id="7" name="Date" dataDxfId="0"/>
     <tableColumn id="9" name="Status"/>
     <tableColumn id="10" name="Channel "/>
     <tableColumn id="11" name="SKU"/>
@@ -3582,9 +3688,12 @@
     <tableColumn id="16" name="Amount"/>
     <tableColumn id="17" name="ship-city"/>
     <tableColumn id="18" name="ship-state"/>
-    <tableColumn id="19" name="ship-postal-code"/>
+    <tableColumn id="19" name="ship-postal-code" dataDxfId="2"/>
     <tableColumn id="20" name="\/"/>
     <tableColumn id="21" name="B2B"/>
+    <tableColumn id="6" name="Column1" dataDxfId="1">
+      <calculatedColumnFormula>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3958,10 +4067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AA6" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3969,19 +4078,22 @@
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" customWidth="1"/>
-    <col min="17" max="17" width="16.88671875" customWidth="1"/>
-    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" customWidth="1"/>
+    <col min="16" max="16" width="18.109375" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" style="13" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
+    <col min="25" max="25" width="14.44140625" customWidth="1"/>
+    <col min="32" max="32" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3998,49 +4110,55 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>29</v>
       </c>
@@ -4056,50 +4174,63 @@
       <c r="E2">
         <v>77</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="16">
         <v>44899</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>735</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2">
+      <c r="R2" s="13">
         <v>600103</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>600103</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11</v>
       </c>
@@ -4115,60 +4246,70 @@
       <c r="E3">
         <v>76</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G3" s="16">
         <v>44899</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>517</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>36</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>37</v>
       </c>
-      <c r="Q3">
-        <v>695018</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>29</v>
       </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1" t="s">
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>348</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="V3">
-        <f>SUM(N:N)</f>
+      <c r="W3">
+        <f>SUM(O:O)</f>
         <v>66643</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AG3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>59</v>
       </c>
@@ -4184,60 +4325,76 @@
       <c r="E4">
         <v>75</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G4" s="16">
         <v>44899</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>41</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>988</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>42</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>43</v>
       </c>
-      <c r="Q4">
-        <v>400063</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="R4" s="13" t="e">
+        <f>400063/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" t="s">
         <v>29</v>
       </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1" t="s">
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>not correct</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <f>AVERAGE(Table1[Amount])</f>
         <v>673.16161616161617</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB4" s="12">
+        <v>36617</v>
+      </c>
+      <c r="AC4" s="12"/>
+      <c r="AG4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>68</v>
       </c>
@@ -4253,60 +4410,71 @@
       <c r="E5">
         <v>75</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G5" s="16">
         <v>44899</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>46</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>26</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>667</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>47</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>48</v>
       </c>
-      <c r="Q5">
+      <c r="R5" s="13">
         <v>827001</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1" t="s">
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>827001</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="V5">
-        <f>MIN(N:N)</f>
+      <c r="W5">
+        <f>MIN(O:O)</f>
         <v>292</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AG5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -4322,60 +4490,71 @@
       <c r="E6">
         <v>75</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G6" s="16">
         <v>44899</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>50</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>51</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>26</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>385</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>52</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>53</v>
       </c>
-      <c r="Q6">
+      <c r="R6" s="13">
         <v>562149</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>29</v>
       </c>
-      <c r="S6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>562149</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="V6">
-        <f>MAX(N:N)</f>
+      <c r="W6">
+        <f>MAX(O:O)</f>
         <v>1449</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AG6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>36</v>
       </c>
@@ -4391,60 +4570,77 @@
       <c r="E7">
         <v>73</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G7" s="16">
         <v>44899</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>55</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>56</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>650</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>58</v>
       </c>
-      <c r="Q7">
+      <c r="R7" s="13">
         <v>390021</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>29</v>
       </c>
-      <c r="S7" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>390021</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="V7">
-        <f>COUNT(N:N)</f>
+      <c r="W7">
+        <f>COUNT(O:O)</f>
         <v>99</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AD7" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF7" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>40</v>
       </c>
@@ -4460,53 +4656,80 @@
       <c r="E8">
         <v>72</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G8" s="16">
         <v>44899</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>60</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>40</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>969</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>62</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>63</v>
       </c>
-      <c r="Q8">
+      <c r="R8" s="13">
         <v>160062</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>29</v>
       </c>
-      <c r="S8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>160062</v>
+      </c>
+      <c r="Y8" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA8" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB8" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC8" s="15"/>
+      <c r="AD8">
+        <f>SUMIFS(O:O,D:D,AA8,I:I,$AB$8)</f>
+        <v>6754</v>
+      </c>
+      <c r="AE8" s="12">
+        <f>AVERAGEIFS(O:O,D:D,AA8,I:I,$AB$8)</f>
+        <v>750.44444444444446</v>
+      </c>
+      <c r="AF8">
+        <f>COUNTIFS(D:D,AA8,I:I,$AB$8)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4522,53 +4745,78 @@
       <c r="E9">
         <v>70</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G9" s="16">
         <v>44899</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>66</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>34</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>61</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>26</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>435</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>67</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>68</v>
       </c>
-      <c r="Q9">
+      <c r="R9" s="13">
         <v>122001</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>29</v>
       </c>
-      <c r="S9" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>122001</v>
+      </c>
+      <c r="Y9" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AA9" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9">
+        <f>SUMIFS(O:O,D:D,AA9,I:I,$AB$8)</f>
+        <v>11169</v>
+      </c>
+      <c r="AE9" s="12">
+        <f>AVERAGEIFS(O:O,D:D,AA9,I:I,$AB$8)</f>
+        <v>587.84210526315792</v>
+      </c>
+      <c r="AF9">
+        <f>COUNTIFS(D:D,AA9,I:I,$AB$8)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4584,53 +4832,61 @@
       <c r="E10">
         <v>67</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G10" s="16">
         <v>44899</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>45</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>70</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>40</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>35</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>26</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>453</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>71</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>72</v>
       </c>
-      <c r="Q10">
+      <c r="R10" s="13">
         <v>700029</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>29</v>
       </c>
-      <c r="S10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>700029</v>
+      </c>
+      <c r="Y10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>96</v>
       </c>
@@ -4646,50 +4902,73 @@
       <c r="E11">
         <v>66</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G11" s="16">
         <v>44899</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>74</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>34</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>61</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>26</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>517</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>75</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>76</v>
       </c>
-      <c r="Q11">
+      <c r="R11" s="13">
         <v>500090</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>29</v>
       </c>
-      <c r="S11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>500090</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD11" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE11" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF11" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>45</v>
       </c>
@@ -4705,50 +4984,73 @@
       <c r="E12">
         <v>64</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G12" s="16">
         <v>44899</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>21</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>78</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>40</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>35</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>26</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>999</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>79</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>80</v>
       </c>
-      <c r="Q12">
+      <c r="R12" s="13">
         <v>524002</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>29</v>
       </c>
-      <c r="S12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>524002</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB12" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC12" s="15">
+        <f>SUMIFS(O:O,F:F,AA12,I:I,$AB$12)</f>
+        <v>2436</v>
+      </c>
+      <c r="AD12">
+        <f>SUMIF(F:F,AA12,O:O)</f>
+        <v>12714</v>
+      </c>
+      <c r="AE12" s="12"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>61</v>
       </c>
@@ -4764,50 +5066,71 @@
       <c r="E13">
         <v>62</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G13" s="16">
         <v>44899</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>32</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>82</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>40</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>61</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>26</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>899</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>83</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>68</v>
       </c>
-      <c r="Q13">
+      <c r="R13" s="13">
         <v>123029</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>29</v>
       </c>
-      <c r="S13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>123029</v>
+      </c>
+      <c r="AA13" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15">
+        <f t="shared" ref="AC13:AC14" si="0">SUMIFS(O:O,F:F,AA13,I:I,$AB$12)</f>
+        <v>14324</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" ref="AD13:AD17" si="1">SUMIF(F:F,AA13,O:O)</f>
+        <v>44611</v>
+      </c>
+      <c r="AE13" s="12"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -4823,50 +5146,81 @@
       <c r="E14">
         <v>62</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G14" s="16">
         <v>44899</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>45</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>85</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>34</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>25</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>26</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>544</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>67</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>68</v>
       </c>
-      <c r="Q14">
+      <c r="R14" s="13">
         <v>122001</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>29</v>
       </c>
-      <c r="S14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>122001</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="X14" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA14" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC14" s="15">
+        <f t="shared" si="0"/>
+        <v>1163</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="1"/>
+        <v>8583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>27</v>
       </c>
@@ -4882,50 +5236,70 @@
       <c r="E15">
         <v>62</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G15" s="16">
         <v>44899</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>21</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>22</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>87</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>88</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>51</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>26</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>484</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>89</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>53</v>
       </c>
-      <c r="Q15">
+      <c r="R15" s="13">
         <v>577004</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>29</v>
       </c>
-      <c r="S15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>577004</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z15">
+        <f>SUMIF(I:I,Z14,O:O)</f>
+        <v>12045</v>
+      </c>
+      <c r="AC15" s="15"/>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>97</v>
       </c>
@@ -4941,50 +5315,70 @@
       <c r="E16">
         <v>60</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G16" s="16">
         <v>44899</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>45</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>91</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>34</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>35</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>26</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>427</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>92</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>93</v>
       </c>
-      <c r="Q16">
+      <c r="R16" s="13">
         <v>177005</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>29</v>
       </c>
-      <c r="S16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>177005</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="W16">
+        <f>SUMIF(D:D,X14,O:O)</f>
+        <v>22759</v>
+      </c>
+      <c r="AC16" s="15"/>
+      <c r="AD16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>83</v>
       </c>
@@ -5000,50 +5394,70 @@
       <c r="E17">
         <v>59</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G17" s="16">
         <v>44899</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>95</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>45</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>96</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>34</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>61</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>26</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>345</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>97</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>98</v>
       </c>
-      <c r="Q17">
+      <c r="R17" s="13">
         <v>201304</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>29</v>
       </c>
-      <c r="S17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>201304</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="W17">
+        <f>SUMIF(D:D,"Women",O:O)</f>
+        <v>43884</v>
+      </c>
+      <c r="AC17" s="15"/>
+      <c r="AD17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>56</v>
       </c>
@@ -5059,50 +5473,58 @@
       <c r="E18">
         <v>58</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G18" s="16">
         <v>44899</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>21</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>100</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>101</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>40</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>25</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>26</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>507</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>75</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>76</v>
       </c>
-      <c r="Q18">
+      <c r="R18" s="13">
         <v>500008</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>29</v>
       </c>
-      <c r="S18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>500008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>80</v>
       </c>
@@ -5118,50 +5540,58 @@
       <c r="E19">
         <v>55</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G19" s="16">
         <v>44899</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>21</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>103</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>104</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>40</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>61</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>26</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>595</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>105</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>58</v>
       </c>
-      <c r="Q19">
+      <c r="R19" s="13">
         <v>392001</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>29</v>
       </c>
-      <c r="S19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>392001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>84</v>
       </c>
@@ -5177,50 +5607,58 @@
       <c r="E20">
         <v>55</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G20" s="16">
         <v>44899</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>21</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>22</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>107</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>34</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>61</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>26</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>481</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>27</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>28</v>
       </c>
-      <c r="Q20">
+      <c r="R20" s="13">
         <v>600077</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>29</v>
       </c>
-      <c r="S20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>600077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -5236,50 +5674,58 @@
       <c r="E21">
         <v>52</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G21" s="16">
         <v>44899</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>21</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>32</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>109</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>40</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>61</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>26</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>967</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>75</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>76</v>
       </c>
-      <c r="Q21">
+      <c r="R21" s="13">
         <v>500098</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>29</v>
       </c>
-      <c r="S21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>500098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>32</v>
       </c>
@@ -5295,50 +5741,58 @@
       <c r="E22">
         <v>52</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Senior</v>
+      </c>
+      <c r="G22" s="16">
         <v>44899</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>21</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>32</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>111</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>24</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>25</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>26</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>885</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>112</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>58</v>
       </c>
-      <c r="Q22">
+      <c r="R22" s="13">
         <v>380058</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>29</v>
       </c>
-      <c r="S22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>380058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>77</v>
       </c>
@@ -5354,50 +5808,58 @@
       <c r="E23">
         <v>49</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G23" s="16">
         <v>44899</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>21</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>22</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>114</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>40</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>51</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>26</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>969</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>115</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>37</v>
       </c>
-      <c r="Q23">
+      <c r="R23" s="13">
         <v>695141</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>29</v>
       </c>
-      <c r="S23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>695141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6</v>
       </c>
@@ -5413,50 +5875,58 @@
       <c r="E24">
         <v>49</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G24" s="16">
         <v>44899</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>21</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>22</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>23</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>24</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>25</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>26</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>735</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>117</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>43</v>
       </c>
-      <c r="Q24">
+      <c r="R24" s="13">
         <v>416436</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>29</v>
       </c>
-      <c r="S24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>416436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>87</v>
       </c>
@@ -5472,50 +5942,58 @@
       <c r="E25">
         <v>49</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G25" s="16">
         <v>44899</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>119</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>45</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>120</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>34</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>35</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>26</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>322</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>121</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>122</v>
       </c>
-      <c r="Q25">
+      <c r="R25" s="13">
         <v>110084</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>29</v>
       </c>
-      <c r="S25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>110084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>70</v>
       </c>
@@ -5531,50 +6009,58 @@
       <c r="E26">
         <v>48</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G26" s="16">
         <v>44899</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>21</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>45</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>124</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>40</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>35</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>26</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>852</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>125</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>43</v>
       </c>
-      <c r="Q26">
+      <c r="R26" s="13">
         <v>411021</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>29</v>
       </c>
-      <c r="S26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>411021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>95</v>
       </c>
@@ -5590,50 +6076,58 @@
       <c r="E27">
         <v>48</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G27" s="16">
         <v>44899</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>21</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>100</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>127</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>34</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>61</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>26</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>631</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>67</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>68</v>
       </c>
-      <c r="Q27">
+      <c r="R27" s="13">
         <v>122002</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>29</v>
       </c>
-      <c r="S27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>122002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>18</v>
       </c>
@@ -5649,50 +6143,58 @@
       <c r="E28">
         <v>48</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G28" s="16">
         <v>44899</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>21</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>65</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>129</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>40</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>130</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>26</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>563</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>131</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>132</v>
       </c>
-      <c r="Q28">
+      <c r="R28" s="13">
         <v>307001</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>29</v>
       </c>
-      <c r="S28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>307001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>48</v>
       </c>
@@ -5708,50 +6210,58 @@
       <c r="E29">
         <v>48</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G29" s="16">
         <v>44899</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>21</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>134</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>135</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>34</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>35</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>26</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>487</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>125</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>43</v>
       </c>
-      <c r="Q29">
+      <c r="R29" s="13">
         <v>411014</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>29</v>
       </c>
-      <c r="S29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>411014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>92</v>
       </c>
@@ -5767,50 +6277,58 @@
       <c r="E30">
         <v>48</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G30" s="16">
         <v>44899</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>21</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>22</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>137</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>40</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>56</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>26</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>429</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>27</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>28</v>
       </c>
-      <c r="Q30">
+      <c r="R30" s="13">
         <v>600051</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>29</v>
       </c>
-      <c r="S30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>600051</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>98</v>
       </c>
@@ -5826,50 +6344,58 @@
       <c r="E31">
         <v>47</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G31" s="16">
         <v>44899</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>21</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>65</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>139</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>24</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>35</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>26</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>855</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>140</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>141</v>
       </c>
-      <c r="Q31">
+      <c r="R31" s="13">
         <v>752069</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>29</v>
       </c>
-      <c r="S31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>752069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>60</v>
       </c>
@@ -5885,50 +6411,58 @@
       <c r="E32">
         <v>47</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G32" s="16">
         <v>44899</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>21</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>100</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>143</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>40</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>51</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>1</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>26</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>633</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>27</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>28</v>
       </c>
-      <c r="Q32">
+      <c r="R32" s="13">
         <v>600066</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>29</v>
       </c>
-      <c r="S32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>600066</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>47</v>
       </c>
@@ -5944,50 +6478,58 @@
       <c r="E33">
         <v>46</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G33" s="16">
         <v>44899</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>21</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>45</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>145</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>40</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>35</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>1</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>26</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>833</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>52</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>53</v>
       </c>
-      <c r="Q33">
+      <c r="R33" s="13">
         <v>562107</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>29</v>
       </c>
-      <c r="S33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>562107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>82</v>
       </c>
@@ -6003,50 +6545,58 @@
       <c r="E34">
         <v>46</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G34" s="16">
         <v>44899</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>21</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>32</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>147</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>34</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>61</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>26</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>729</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>148</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>72</v>
       </c>
-      <c r="Q34">
+      <c r="R34" s="13">
         <v>700082</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>29</v>
       </c>
-      <c r="S34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>700082</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>69</v>
       </c>
@@ -6062,50 +6612,58 @@
       <c r="E35">
         <v>46</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G35" s="16">
         <v>44899</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>21</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>45</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>150</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>151</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>152</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>26</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>685</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>153</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>68</v>
       </c>
-      <c r="Q35">
+      <c r="R35" s="13">
         <v>134116</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>29</v>
       </c>
-      <c r="S35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>134116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20</v>
       </c>
@@ -6121,50 +6679,58 @@
       <c r="E36">
         <v>46</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G36" s="16">
         <v>44899</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>21</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>32</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>155</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>40</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>61</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>1</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>26</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>545</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>156</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>63</v>
       </c>
-      <c r="Q36">
+      <c r="R36" s="13">
         <v>143001</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>29</v>
       </c>
-      <c r="S36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>143001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>76</v>
       </c>
@@ -6180,50 +6746,58 @@
       <c r="E37">
         <v>45</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G37" s="16">
         <v>44899</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>21</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>45</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>158</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>40</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>51</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>1</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>26</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>597</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>52</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>53</v>
       </c>
-      <c r="Q37">
+      <c r="R37" s="13">
         <v>560021</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>29</v>
       </c>
-      <c r="S37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>560021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12</v>
       </c>
@@ -6239,50 +6813,58 @@
       <c r="E38">
         <v>45</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G38" s="16">
         <v>44899</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>21</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>45</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>159</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>88</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>61</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>1</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>26</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>399</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>160</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>28</v>
       </c>
-      <c r="Q38">
+      <c r="R38" s="13">
         <v>631003</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>29</v>
       </c>
-      <c r="S38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>631003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>43</v>
       </c>
@@ -6298,50 +6880,58 @@
       <c r="E39">
         <v>44</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G39" s="16">
         <v>44899</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>21</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>45</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>162</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>40</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>130</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>1</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>26</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>1115</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>125</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>43</v>
       </c>
-      <c r="Q39">
+      <c r="R39" s="13">
         <v>412207</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>29</v>
       </c>
-      <c r="S39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>412207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>14</v>
       </c>
@@ -6357,50 +6947,58 @@
       <c r="E40">
         <v>44</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G40" s="16">
         <v>44899</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>21</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>45</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>164</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>40</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>61</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>1</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>26</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>911</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>52</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>53</v>
       </c>
-      <c r="Q40">
+      <c r="R40" s="13">
         <v>562125</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>29</v>
       </c>
-      <c r="S40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>562125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>65</v>
       </c>
@@ -6416,50 +7014,58 @@
       <c r="E41">
         <v>44</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G41" s="16">
         <v>44899</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>95</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>45</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>166</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>34</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>51</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>1</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>26</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>399</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>167</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>43</v>
       </c>
-      <c r="Q41">
+      <c r="R41" s="13">
         <v>421306</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>29</v>
       </c>
-      <c r="S41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>421306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -6475,50 +7081,58 @@
       <c r="E42">
         <v>44</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G42" s="16">
         <v>44899</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>21</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>45</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>169</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>34</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>25</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>1</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>26</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>376</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>62</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>63</v>
       </c>
-      <c r="Q42">
+      <c r="R42" s="13">
         <v>140301</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>29</v>
       </c>
-      <c r="S42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>140301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>21</v>
       </c>
@@ -6534,50 +7148,58 @@
       <c r="E43">
         <v>43</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G43" s="16">
         <v>44899</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>21</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>134</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>171</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>40</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>41</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>1</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>26</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>1164</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>172</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>98</v>
       </c>
-      <c r="Q43">
+      <c r="R43" s="13">
         <v>226024</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>29</v>
       </c>
-      <c r="S43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>226024</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10</v>
       </c>
@@ -6593,50 +7215,58 @@
       <c r="E44">
         <v>43</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G44" s="16">
         <v>44899</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>21</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>45</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>173</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>34</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>56</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>1</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>26</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>771</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>174</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>80</v>
       </c>
-      <c r="Q44">
+      <c r="R44" s="13">
         <v>520002</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>29</v>
       </c>
-      <c r="S44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>520002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>53</v>
       </c>
@@ -6652,50 +7282,58 @@
       <c r="E45">
         <v>43</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G45" s="16">
         <v>44899</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>21</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>65</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>176</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>88</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>35</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>1</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>26</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>540</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>177</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>122</v>
       </c>
-      <c r="Q45">
+      <c r="R45" s="13">
         <v>110017</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>29</v>
       </c>
-      <c r="S45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>110017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>62</v>
       </c>
@@ -6711,50 +7349,58 @@
       <c r="E46">
         <v>42</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G46" s="16">
         <v>44899</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>21</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>32</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>179</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>34</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>180</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>1</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>26</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>764</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>52</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>53</v>
       </c>
-      <c r="Q46">
+      <c r="R46" s="13">
         <v>560103</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>29</v>
       </c>
-      <c r="S46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>560103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>38</v>
       </c>
@@ -6770,50 +7416,58 @@
       <c r="E47">
         <v>41</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G47" s="16">
         <v>44899</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>21</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>45</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>182</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>40</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>130</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>1</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>26</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>967</v>
-      </c>
-      <c r="O47" t="s">
-        <v>183</v>
       </c>
       <c r="P47" t="s">
         <v>183</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" t="s">
+        <v>183</v>
+      </c>
+      <c r="R47" s="13">
         <v>160036</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>29</v>
       </c>
-      <c r="S47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>160036</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>37</v>
       </c>
@@ -6829,50 +7483,58 @@
       <c r="E48">
         <v>41</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G48" s="16">
         <v>44899</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>21</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>32</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>185</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>34</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>51</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>1</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>26</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>449</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>186</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>37</v>
       </c>
-      <c r="Q48">
+      <c r="R48" s="13">
         <v>670309</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>29</v>
       </c>
-      <c r="S48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>670309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>31</v>
       </c>
@@ -6888,50 +7550,58 @@
       <c r="E49">
         <v>40</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G49" s="16">
         <v>44899</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>21</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>32</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>23</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>24</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>25</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>1</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>26</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>715</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>188</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>189</v>
       </c>
-      <c r="Q49">
+      <c r="R49" s="13">
         <v>744302</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>29</v>
       </c>
-      <c r="S49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>744302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>34</v>
       </c>
@@ -6947,50 +7617,58 @@
       <c r="E50">
         <v>39</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G50" s="16">
         <v>44899</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>21</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>45</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>191</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>40</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>51</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>1</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>26</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>1238</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>192</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>193</v>
       </c>
-      <c r="Q50">
+      <c r="R50" s="13">
         <v>781020</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>29</v>
       </c>
-      <c r="S50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>781020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>54</v>
       </c>
@@ -7006,50 +7684,58 @@
       <c r="E51">
         <v>39</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G51" s="16">
         <v>44899</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>21</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>45</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>195</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>40</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>130</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>1</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>26</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>698</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>196</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>98</v>
       </c>
-      <c r="Q51">
+      <c r="R51" s="13">
         <v>272175</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>29</v>
       </c>
-      <c r="S51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>272175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>41</v>
       </c>
@@ -7065,50 +7751,58 @@
       <c r="E52">
         <v>39</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G52" s="16">
         <v>44899</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>21</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>22</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>198</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>24</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>56</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>1</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>26</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>599</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>52</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>53</v>
       </c>
-      <c r="Q52">
+      <c r="R52" s="13">
         <v>560061</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>29</v>
       </c>
-      <c r="S52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T52" t="b">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>560061</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>42</v>
       </c>
@@ -7124,50 +7818,58 @@
       <c r="E53">
         <v>39</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G53" s="16">
         <v>44899</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>21</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>32</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>199</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>88</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>35</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>1</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>26</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>545</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>125</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>43</v>
       </c>
-      <c r="Q53">
+      <c r="R53" s="13">
         <v>411051</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>29</v>
       </c>
-      <c r="S53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T53" t="b">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>411051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>79</v>
       </c>
@@ -7183,50 +7885,58 @@
       <c r="E54">
         <v>39</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G54" s="16">
         <v>44899</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>21</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>45</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>201</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>34</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>51</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>1</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>26</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>481</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>67</v>
       </c>
-      <c r="P54" t="s">
+      <c r="Q54" t="s">
         <v>68</v>
       </c>
-      <c r="Q54">
+      <c r="R54" s="13">
         <v>122001</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>29</v>
       </c>
-      <c r="S54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T54" t="b">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>122001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>58</v>
       </c>
@@ -7242,50 +7952,58 @@
       <c r="E55">
         <v>38</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G55" s="16">
         <v>44899</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>21</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>32</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>203</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>151</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>152</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>1</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>26</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>737</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>204</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>205</v>
       </c>
-      <c r="Q55">
+      <c r="R55" s="13">
         <v>483501</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>29</v>
       </c>
-      <c r="S55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T55" t="b">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>483501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>33</v>
       </c>
@@ -7301,50 +8019,58 @@
       <c r="E56">
         <v>38</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G56" s="16">
         <v>44899</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>21</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>65</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>207</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>34</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>61</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>1</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>26</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>301</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>208</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>28</v>
       </c>
-      <c r="Q56">
+      <c r="R56" s="13">
         <v>636007</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>29</v>
       </c>
-      <c r="S56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T56" t="b">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>636007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>35</v>
       </c>
@@ -7360,50 +8086,58 @@
       <c r="E57">
         <v>37</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G57" s="16">
         <v>44899</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>21</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>32</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>210</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>40</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>35</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>1</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>26</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>856</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>27</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>28</v>
       </c>
-      <c r="Q57">
+      <c r="R57" s="13">
         <v>600119</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>29</v>
       </c>
-      <c r="S57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T57" t="b">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>600119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>25</v>
       </c>
@@ -7419,50 +8153,58 @@
       <c r="E58">
         <v>37</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G58" s="16">
         <v>44899</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>21</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>32</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>212</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>40</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>61</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>1</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>26</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>612</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>75</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>76</v>
       </c>
-      <c r="Q58">
+      <c r="R58" s="13">
         <v>500060</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>29</v>
       </c>
-      <c r="S58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T58" t="b">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>500060</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>26</v>
       </c>
@@ -7478,50 +8220,58 @@
       <c r="E59">
         <v>37</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G59" s="16">
         <v>44899</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>21</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>65</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>214</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>34</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>25</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>1</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>26</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>533</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>215</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>205</v>
       </c>
-      <c r="Q59">
+      <c r="R59" s="13">
         <v>452014</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>29</v>
       </c>
-      <c r="S59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T59" t="b">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>452014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>85</v>
       </c>
@@ -7537,50 +8287,58 @@
       <c r="E60">
         <v>37</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G60" s="16">
         <v>44899</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>217</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>32</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>218</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>34</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>35</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>1</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>26</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>382</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>219</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>43</v>
       </c>
-      <c r="Q60">
+      <c r="R60" s="13">
         <v>441701</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>29</v>
       </c>
-      <c r="S60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T60" t="b">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>441701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>72</v>
       </c>
@@ -7596,50 +8354,58 @@
       <c r="E61">
         <v>36</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G61" s="16">
         <v>44899</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>21</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>45</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>221</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>34</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>25</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>1</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>26</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>563</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>121</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>122</v>
       </c>
-      <c r="Q61">
+      <c r="R61" s="13">
         <v>110084</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>29</v>
       </c>
-      <c r="S61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T61" t="b">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>110084</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>93</v>
       </c>
@@ -7655,50 +8421,58 @@
       <c r="E62">
         <v>36</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G62" s="16">
         <v>44899</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>21</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>45</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>185</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>34</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>51</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>1</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>26</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>471</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>222</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>80</v>
       </c>
-      <c r="Q62">
+      <c r="R62" s="13">
         <v>530003</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>29</v>
       </c>
-      <c r="S62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T62" t="b">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>530003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>50</v>
       </c>
@@ -7714,50 +8488,58 @@
       <c r="E63">
         <v>35</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G63" s="16">
         <v>44899</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>21</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>65</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>224</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>40</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>61</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>1</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>26</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>558</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>225</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>53</v>
       </c>
-      <c r="Q63">
+      <c r="R63" s="13">
         <v>574118</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>29</v>
       </c>
-      <c r="S63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T63" t="b">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>574118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>39</v>
       </c>
@@ -7773,50 +8555,58 @@
       <c r="E64">
         <v>35</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G64" s="16">
         <v>44899</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>21</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>32</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>227</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>34</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>51</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>1</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>26</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>399</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>67</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>68</v>
       </c>
-      <c r="Q64">
+      <c r="R64" s="13">
         <v>122001</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>29</v>
       </c>
-      <c r="S64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>122001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7832,50 +8622,58 @@
       <c r="E65">
         <v>34</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G65" s="16">
         <v>44899</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>21</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>65</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>229</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>34</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>41</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>1</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>26</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>688</v>
       </c>
-      <c r="O65" t="s">
+      <c r="P65" t="s">
         <v>27</v>
       </c>
-      <c r="P65" t="s">
+      <c r="Q65" t="s">
         <v>28</v>
       </c>
-      <c r="Q65">
+      <c r="R65" s="13">
         <v>600061</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>29</v>
       </c>
-      <c r="S65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T65" t="b">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>600061</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>88</v>
       </c>
@@ -7891,50 +8689,58 @@
       <c r="E66">
         <v>33</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G66" s="16">
         <v>44899</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>21</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>32</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>231</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>34</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>56</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>1</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>26</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>449</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>232</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>53</v>
       </c>
-      <c r="Q66">
+      <c r="R66" s="13">
         <v>581320</v>
       </c>
-      <c r="R66" t="s">
+      <c r="S66" t="s">
         <v>29</v>
       </c>
-      <c r="S66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T66" t="b">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>581320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>91</v>
       </c>
@@ -7950,50 +8756,58 @@
       <c r="E67">
         <v>32</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G67" s="16">
         <v>44899</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>21</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>22</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>234</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>40</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>56</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>1</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>26</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>737</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>75</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>76</v>
       </c>
-      <c r="Q67">
+      <c r="R67" s="13">
         <v>500020</v>
       </c>
-      <c r="R67" t="s">
+      <c r="S67" t="s">
         <v>29</v>
       </c>
-      <c r="S67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T67" t="b">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>500020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>74</v>
       </c>
@@ -8009,50 +8823,58 @@
       <c r="E68">
         <v>32</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G68" s="16">
         <v>44899</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>21</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>32</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>236</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>40</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>130</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>1</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>26</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>702</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>237</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>53</v>
       </c>
-      <c r="Q68">
+      <c r="R68" s="13">
         <v>560095</v>
       </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>29</v>
       </c>
-      <c r="S68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T68" t="b">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>560095</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>22</v>
       </c>
@@ -8068,50 +8890,58 @@
       <c r="E69">
         <v>31</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G69" s="16">
         <v>44899</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>217</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>45</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>239</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>24</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>25</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>1</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>26</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>743</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>121</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>122</v>
       </c>
-      <c r="Q69">
+      <c r="R69" s="13">
         <v>110087</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>29</v>
       </c>
-      <c r="S69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T69" t="b">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>110087</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>67</v>
       </c>
@@ -8127,50 +8957,58 @@
       <c r="E70">
         <v>31</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G70" s="16">
         <v>44899</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>21</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>32</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>241</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>34</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>51</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>1</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>26</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>363</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>71</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>72</v>
       </c>
-      <c r="Q70">
+      <c r="R70" s="13">
         <v>700028</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>29</v>
       </c>
-      <c r="S70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T70" t="b">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>700028</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>17</v>
       </c>
@@ -8186,50 +9024,58 @@
       <c r="E71">
         <v>30</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G71" s="16">
         <v>44899</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>21</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>100</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>243</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>40</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>51</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>1</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>26</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>1115</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>244</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>141</v>
       </c>
-      <c r="Q71">
+      <c r="R71" s="13">
         <v>751022</v>
       </c>
-      <c r="R71" t="s">
+      <c r="S71" t="s">
         <v>29</v>
       </c>
-      <c r="S71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T71" t="b">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>751022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>23</v>
       </c>
@@ -8245,50 +9091,58 @@
       <c r="E72">
         <v>30</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G72" s="16">
         <v>44899</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>21</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>45</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>246</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>40</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>41</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>1</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>26</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>575</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>247</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>28</v>
       </c>
-      <c r="Q72">
+      <c r="R72" s="13">
         <v>625014</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>29</v>
       </c>
-      <c r="S72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T72" t="b">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>625014</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>46</v>
       </c>
@@ -8304,50 +9158,58 @@
       <c r="E73">
         <v>30</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G73" s="16">
         <v>44899</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>21</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>32</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>249</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>40</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>25</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>1</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>26</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>563</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>250</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>28</v>
       </c>
-      <c r="Q73">
+      <c r="R73" s="13">
         <v>620101</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>29</v>
       </c>
-      <c r="S73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T73" t="b">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>620101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>81</v>
       </c>
@@ -8363,50 +9225,58 @@
       <c r="E74">
         <v>30</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G74" s="16">
         <v>44899</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>21</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>22</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>251</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>34</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>25</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>1</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>26</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>458</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>42</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>43</v>
       </c>
-      <c r="Q74">
+      <c r="R74" s="13">
         <v>400097</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>29</v>
       </c>
-      <c r="S74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T74" t="b">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>400097</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -8422,50 +9292,58 @@
       <c r="E75">
         <v>29</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G75" s="16">
         <v>44899</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>21</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>103</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>253</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>40</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>56</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>1</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>26</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>1449</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>67</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>68</v>
       </c>
-      <c r="Q75">
+      <c r="R75" s="13">
         <v>122002</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>29</v>
       </c>
-      <c r="S75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T75" t="b">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>122002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>57</v>
       </c>
@@ -8481,50 +9359,58 @@
       <c r="E76">
         <v>27</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G76" s="16">
         <v>44899</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>21</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>32</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>254</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>40</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>130</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>1</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>26</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>916</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>255</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>98</v>
       </c>
-      <c r="Q76">
+      <c r="R76" s="13">
         <v>228001</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>29</v>
       </c>
-      <c r="S76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T76" t="b">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>228001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>51</v>
       </c>
@@ -8540,50 +9426,58 @@
       <c r="E77">
         <v>27</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G77" s="16">
         <v>44899</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>21</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>32</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>257</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>40</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>61</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>1</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>26</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>664</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>75</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>76</v>
       </c>
-      <c r="Q77">
+      <c r="R77" s="13">
         <v>500039</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
         <v>29</v>
       </c>
-      <c r="S77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T77" t="b">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>500039</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>71</v>
       </c>
@@ -8599,50 +9493,58 @@
       <c r="E78">
         <v>26</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G78" s="16">
         <v>44899</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>21</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>32</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>259</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>151</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>152</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>1</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>26</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>1075</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>260</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>261</v>
       </c>
-      <c r="Q78">
+      <c r="R78" s="13">
         <v>801113</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>29</v>
       </c>
-      <c r="S78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T78" t="b">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>801113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>30</v>
       </c>
@@ -8658,50 +9560,58 @@
       <c r="E79">
         <v>26</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G79" s="16">
         <v>44899</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>21</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>32</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>263</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>40</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>130</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>1</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>26</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>759</v>
       </c>
-      <c r="O79" t="s">
+      <c r="P79" t="s">
         <v>264</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>98</v>
       </c>
-      <c r="Q79">
+      <c r="R79" s="13">
         <v>230304</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>29</v>
       </c>
-      <c r="S79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T79" t="b">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>230304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>75</v>
       </c>
@@ -8717,50 +9627,58 @@
       <c r="E80">
         <v>26</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G80" s="16">
         <v>44899</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>21</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>134</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>266</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>151</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>152</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>1</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>26</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>476</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>267</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>43</v>
       </c>
-      <c r="Q80">
+      <c r="R80" s="13">
         <v>400705</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>29</v>
       </c>
-      <c r="S80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T80" t="b">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>400705</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>49</v>
       </c>
@@ -8776,50 +9694,58 @@
       <c r="E81">
         <v>25</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G81" s="16">
         <v>44899</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>21</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>45</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>269</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>34</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>61</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>1</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>26</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>292</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>270</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>98</v>
       </c>
-      <c r="Q81">
+      <c r="R81" s="13">
         <v>221010</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>29</v>
       </c>
-      <c r="S81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T81" t="b">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>221010</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>66</v>
       </c>
@@ -8835,50 +9761,58 @@
       <c r="E82">
         <v>24</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G82" s="16">
         <v>44899</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>21</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>45</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>272</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>88</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>35</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>1</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>26</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>563</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>112</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>58</v>
       </c>
-      <c r="Q82">
+      <c r="R82" s="13">
         <v>382470</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>29</v>
       </c>
-      <c r="S82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T82" t="b">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>382470</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>19</v>
       </c>
@@ -8894,50 +9828,58 @@
       <c r="E83">
         <v>24</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G83" s="16">
         <v>44899</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>21</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>45</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>274</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>24</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>25</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>1</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>26</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>473</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>42</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>43</v>
       </c>
-      <c r="Q83">
+      <c r="R83" s="13">
         <v>400097</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>29</v>
       </c>
-      <c r="S83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T83" t="b">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>400097</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>55</v>
       </c>
@@ -8953,50 +9895,58 @@
       <c r="E84">
         <v>23</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G84" s="16">
         <v>44899</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>21</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>65</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>276</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>40</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>25</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>1</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>26</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>1115</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>121</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>122</v>
       </c>
-      <c r="Q84">
+      <c r="R84" s="13">
         <v>110016</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>29</v>
       </c>
-      <c r="S84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T84" t="b">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>110016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>73</v>
       </c>
@@ -9012,50 +9962,58 @@
       <c r="E85">
         <v>23</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G85" s="16">
         <v>44899</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>21</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>22</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>278</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>40</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>25</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>1</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>26</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>1072</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>167</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>43</v>
       </c>
-      <c r="Q85">
+      <c r="R85" s="13">
         <v>421201</v>
       </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
         <v>29</v>
       </c>
-      <c r="S85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T85" t="b">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>421201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>7</v>
       </c>
@@ -9071,50 +10029,58 @@
       <c r="E86">
         <v>23</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G86" s="16">
         <v>44899</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>21</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>100</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>279</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>34</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>25</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>1</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>26</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>735</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>52</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>53</v>
       </c>
-      <c r="Q86">
+      <c r="R86" s="13">
         <v>560029</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>29</v>
       </c>
-      <c r="S86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T86" t="b">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>560029</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>44</v>
       </c>
@@ -9130,50 +10096,58 @@
       <c r="E87">
         <v>22</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G87" s="16">
         <v>44899</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>21</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>100</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>281</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>40</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>51</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>1</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>26</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>648</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>282</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>68</v>
       </c>
-      <c r="Q87">
+      <c r="R87" s="13">
         <v>131001</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
         <v>29</v>
       </c>
-      <c r="S87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T87" t="b">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>131001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>89</v>
       </c>
@@ -9189,50 +10163,58 @@
       <c r="E88">
         <v>22</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Adults</v>
+      </c>
+      <c r="G88" s="16">
         <v>44899</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>21</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>32</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>284</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>40</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>56</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>1</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>26</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>573</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>42</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>43</v>
       </c>
-      <c r="Q88">
+      <c r="R88" s="13">
         <v>400098</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>29</v>
       </c>
-      <c r="S88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T88" t="b">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>400098</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>52</v>
       </c>
@@ -9248,50 +10230,58 @@
       <c r="E89">
         <v>21</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Teenager</v>
+      </c>
+      <c r="G89" s="16">
         <v>44899</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>21</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>65</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>60</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>40</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>61</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>1</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>26</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>1112</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>286</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>98</v>
       </c>
-      <c r="Q89">
+      <c r="R89" s="13">
         <v>211001</v>
       </c>
-      <c r="R89" t="s">
+      <c r="S89" t="s">
         <v>29</v>
       </c>
-      <c r="S89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T89" t="b">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>211001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>78</v>
       </c>
@@ -9307,50 +10297,58 @@
       <c r="E90">
         <v>21</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Teenager</v>
+      </c>
+      <c r="G90" s="16">
         <v>44899</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>21</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>22</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>288</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>40</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>130</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>1</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>26</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>801</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>289</v>
       </c>
-      <c r="P90" t="s">
+      <c r="Q90" t="s">
         <v>132</v>
       </c>
-      <c r="Q90">
+      <c r="R90" s="13">
         <v>334001</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>29</v>
       </c>
-      <c r="S90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T90" t="b">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>334001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4</v>
       </c>
@@ -9366,50 +10364,58 @@
       <c r="E91">
         <v>20</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Teenager</v>
+      </c>
+      <c r="G91" s="16">
         <v>44899</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>21</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>32</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>291</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>40</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>61</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>1</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>26</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>729</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>292</v>
       </c>
-      <c r="P91" t="s">
+      <c r="Q91" t="s">
         <v>28</v>
       </c>
-      <c r="Q91">
+      <c r="R91" s="13">
         <v>613007</v>
       </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>29</v>
       </c>
-      <c r="S91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T91" t="b">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>613007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>28</v>
       </c>
@@ -9425,50 +10431,58 @@
       <c r="E92">
         <v>20</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Teenager</v>
+      </c>
+      <c r="G92" s="16">
         <v>44899</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>21</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>22</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>294</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>40</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>41</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>1</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>26</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>563</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>295</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>296</v>
       </c>
-      <c r="Q92">
+      <c r="R92" s="13">
         <v>263153</v>
       </c>
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>29</v>
       </c>
-      <c r="S92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T92" t="b">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>263153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>64</v>
       </c>
@@ -9484,50 +10498,58 @@
       <c r="E93">
         <v>20</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Teenager</v>
+      </c>
+      <c r="G93" s="16">
         <v>44899</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>21</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>32</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>298</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>34</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>56</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>1</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>26</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>399</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>299</v>
       </c>
-      <c r="P93" t="s">
+      <c r="Q93" t="s">
         <v>53</v>
       </c>
-      <c r="Q93">
+      <c r="R93" s="13">
         <v>560054</v>
       </c>
-      <c r="R93" t="s">
+      <c r="S93" t="s">
         <v>29</v>
       </c>
-      <c r="S93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T93" t="b">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>560054</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -9543,50 +10565,58 @@
       <c r="E94">
         <v>20</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Teenager</v>
+      </c>
+      <c r="G94" s="16">
         <v>44899</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>21</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>32</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>301</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>151</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>152</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>1</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>26</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>307</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>302</v>
       </c>
-      <c r="P94" t="s">
+      <c r="Q94" t="s">
         <v>37</v>
       </c>
-      <c r="Q94">
+      <c r="R94" s="13">
         <v>673524</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>29</v>
       </c>
-      <c r="S94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T94" t="b">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>673524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>86</v>
       </c>
@@ -9602,50 +10632,58 @@
       <c r="E95">
         <v>19</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Teenager</v>
+      </c>
+      <c r="G95" s="16">
         <v>44899</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>21</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>32</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>304</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>40</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>130</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>1</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>26</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>1036</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>42</v>
       </c>
-      <c r="P95" t="s">
+      <c r="Q95" t="s">
         <v>43</v>
       </c>
-      <c r="Q95">
+      <c r="R95" s="13">
         <v>400093</v>
       </c>
-      <c r="R95" t="s">
+      <c r="S95" t="s">
         <v>29</v>
       </c>
-      <c r="S95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T95" t="b">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>400093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>24</v>
       </c>
@@ -9661,50 +10699,58 @@
       <c r="E96">
         <v>19</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Teenager</v>
+      </c>
+      <c r="G96" s="16">
         <v>44899</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>21</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>103</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>306</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>40</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>130</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>1</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>26</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>788</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
         <v>307</v>
       </c>
-      <c r="P96" t="s">
+      <c r="Q96" t="s">
         <v>98</v>
       </c>
-      <c r="Q96">
+      <c r="R96" s="13">
         <v>250002</v>
       </c>
-      <c r="R96" t="s">
+      <c r="S96" t="s">
         <v>29</v>
       </c>
-      <c r="S96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T96" t="b">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>250002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>99</v>
       </c>
@@ -9720,50 +10766,58 @@
       <c r="E97">
         <v>19</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Teenager</v>
+      </c>
+      <c r="G97" s="16">
         <v>44899</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>21</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>22</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>309</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>34</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>25</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>1</v>
       </c>
-      <c r="M97" t="s">
+      <c r="N97" t="s">
         <v>26</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>376</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>52</v>
       </c>
-      <c r="P97" t="s">
+      <c r="Q97" t="s">
         <v>53</v>
       </c>
-      <c r="Q97">
+      <c r="R97" s="13">
         <v>560075</v>
       </c>
-      <c r="R97" t="s">
+      <c r="S97" t="s">
         <v>29</v>
       </c>
-      <c r="S97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T97" t="b">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>560075</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>90</v>
       </c>
@@ -9779,50 +10833,58 @@
       <c r="E98">
         <v>18</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Teenager</v>
+      </c>
+      <c r="G98" s="16">
         <v>44899</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>21</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>45</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>311</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>40</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>35</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>1</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>26</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>1163</v>
       </c>
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>312</v>
       </c>
-      <c r="P98" t="s">
+      <c r="Q98" t="s">
         <v>48</v>
       </c>
-      <c r="Q98">
+      <c r="R98" s="13">
         <v>834008</v>
       </c>
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>29</v>
       </c>
-      <c r="S98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T98" t="b">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>834008</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>13</v>
       </c>
@@ -9838,50 +10900,58 @@
       <c r="E99">
         <v>18</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Teenager</v>
+      </c>
+      <c r="G99" s="16">
         <v>44899</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>21</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>32</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>314</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>40</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>51</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>1</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>26</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <v>786</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" t="s">
         <v>192</v>
       </c>
-      <c r="P99" t="s">
+      <c r="Q99" t="s">
         <v>193</v>
       </c>
-      <c r="Q99">
+      <c r="R99" s="13">
         <v>781017</v>
       </c>
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>29</v>
       </c>
-      <c r="S99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T99" t="b">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>781017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>16</v>
       </c>
@@ -9897,47 +10967,55 @@
       <c r="E100">
         <v>18</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="str">
+        <f>IF(Table1[[#This Row],[Age]]&gt;50,"Senior",IF(Table1[[#This Row],[Age]]&gt;21,"Adults","Teenager"))</f>
+        <v>Teenager</v>
+      </c>
+      <c r="G100" s="16">
         <v>44899</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>21</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>134</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>316</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>88</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>56</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>1</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100" t="s">
         <v>26</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>523</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
         <v>121</v>
       </c>
-      <c r="P100" t="s">
+      <c r="Q100" t="s">
         <v>122</v>
       </c>
-      <c r="Q100">
+      <c r="R100" s="13">
         <v>110062</v>
       </c>
-      <c r="R100" t="s">
+      <c r="S100" t="s">
         <v>29</v>
       </c>
-      <c r="S100" t="b">
-        <v>0</v>
+      <c r="T100" t="b">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <f>IFERROR(Table1[[#This Row],[ship-postal-code]],"not correct")</f>
+        <v>110062</v>
       </c>
     </row>
   </sheetData>
@@ -9955,7 +11033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -12076,7 +13154,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="b">
-        <f t="shared" ref="C3:C66" si="1">AND(A5="Men",B5="Amazon")</f>
+        <f t="shared" ref="C5:C66" si="1">AND(A5="Men",B5="Amazon")</f>
         <v>0</v>
       </c>
       <c r="D5" t="b">
@@ -12605,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="b">
-        <f t="shared" ref="D3:D66" si="2">AND(B47="Flipkart",C47)</f>
+        <f t="shared" ref="D47:D66" si="2">AND(B47="Flipkart",C47)</f>
         <v>0</v>
       </c>
     </row>
